--- a/results/MVSE/dblp/MVSE_dblp<l01><WH>90.46.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l01><WH>90.46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,7 +522,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -590,7 +590,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         <v>128</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H3" t="n">
         <v>50</v>
@@ -636,20 +636,20 @@
         <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="N3" t="n">
-        <v>89.98</v>
+        <v>90.3</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="P3" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_54_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_11_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R3" t="n">
@@ -658,7 +658,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -677,14 +677,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>128</v>
       </c>
       <c r="G4" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="H4" t="n">
         <v>50</v>
@@ -699,34 +699,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="N4" t="n">
-        <v>89.93000000000001</v>
+        <v>90.16</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P4" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_09_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_19_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -745,14 +745,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>128</v>
       </c>
       <c r="G5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="H5" t="n">
         <v>50</v>
@@ -767,34 +767,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="N5" t="n">
-        <v>89.90000000000001</v>
+        <v>90.11</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="P5" t="n">
-        <v>0.46</v>
+        <v>0.76</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_38_33', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_10_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -813,14 +813,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H6" t="n">
         <v>50</v>
@@ -835,34 +835,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="N6" t="n">
-        <v>89.86</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P6" t="n">
-        <v>0.82</v>
+        <v>0.41</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_33_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_22_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -881,14 +881,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>128</v>
       </c>
       <c r="G7" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
         <v>50</v>
@@ -903,34 +903,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="N7" t="n">
-        <v>89.84</v>
+        <v>89.98</v>
       </c>
       <c r="O7" t="n">
         <v>0.02</v>
       </c>
       <c r="P7" t="n">
-        <v>1.02</v>
+        <v>0.24</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_47_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_54_51', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -949,14 +949,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>128</v>
       </c>
       <c r="G8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="H8" t="n">
         <v>50</v>
@@ -971,34 +971,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K8" t="n">
-        <v>1</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="N8" t="n">
-        <v>89.79000000000001</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
+        <v>0.68</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_52_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_09_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1017,14 +1017,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>128</v>
       </c>
       <c r="G9" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H9" t="n">
         <v>50</v>
@@ -1039,34 +1039,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>2</v>
       </c>
       <c r="M9" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="N9" t="n">
-        <v>89.48999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="P9" t="n">
-        <v>0.58</v>
+        <v>0.46</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_36_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_38_33', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1092,7 +1092,7 @@
         <v>128</v>
       </c>
       <c r="G10" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="H10" t="n">
         <v>50</v>
@@ -1114,27 +1114,27 @@
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="N10" t="n">
-        <v>89.39</v>
+        <v>89.88</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P10" t="n">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_17_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_59_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>128</v>
       </c>
       <c r="G11" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
         <v>50</v>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -1185,17 +1185,17 @@
         <v>0.29</v>
       </c>
       <c r="N11" t="n">
-        <v>89.3</v>
+        <v>89.86</v>
       </c>
       <c r="O11" t="n">
         <v>0.03</v>
       </c>
       <c r="P11" t="n">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_23_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_33_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R11" t="inlineStr"/>
@@ -1221,14 +1221,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>128</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H12" t="n">
         <v>50</v>
@@ -1243,34 +1243,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
       <c r="L12" t="n">
         <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="N12" t="n">
-        <v>89.26000000000001</v>
+        <v>89.84</v>
       </c>
       <c r="O12" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="P12" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_50_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_47_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1312,33 +1312,33 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="N13" t="n">
-        <v>89.19</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="O13" t="n">
         <v>0.01</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>0.14</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-12_13_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_52_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1364,7 +1364,7 @@
         <v>128</v>
       </c>
       <c r="G14" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H14" t="n">
         <v>50</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -1389,24 +1389,24 @@
         <v>0.26</v>
       </c>
       <c r="N14" t="n">
-        <v>88.95999999999999</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.45</v>
+        <v>0.58</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_55_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_36_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         <v>128</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H15" t="n">
         <v>50</v>
@@ -1448,33 +1448,33 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="N15" t="n">
-        <v>88.59</v>
+        <v>89.39</v>
       </c>
       <c r="O15" t="n">
         <v>0.01</v>
       </c>
       <c r="P15" t="n">
-        <v>1.51</v>
+        <v>0.45</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_37_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_17_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>128</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="H16" t="n">
         <v>50</v>
@@ -1525,24 +1525,24 @@
         <v>0.29</v>
       </c>
       <c r="N16" t="n">
-        <v>88.09999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="O16" t="n">
         <v>0.03</v>
       </c>
       <c r="P16" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_59_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_23_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1561,14 +1561,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>128</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" t="n">
         <v>50</v>
@@ -1583,34 +1583,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K17" t="n">
-        <v>1</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="N17" t="n">
-        <v>86.47</v>
+        <v>89.26000000000001</v>
       </c>
       <c r="O17" t="n">
         <v>0.03</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_05_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_50_23', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1629,14 +1629,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>128</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H18" t="n">
         <v>50</v>
@@ -1651,34 +1651,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>3</v>
+      </c>
       <c r="L18" t="n">
         <v>2</v>
       </c>
       <c r="M18" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="N18" t="n">
-        <v>84.39</v>
+        <v>89.19</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_22_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-12_13_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         <v>128</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="H19" t="n">
         <v>50</v>
@@ -1726,23 +1726,567 @@
         <v>2</v>
       </c>
       <c r="M19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="N19" t="n">
+        <v>89.12</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_27_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>128</v>
+      </c>
+      <c r="G20" t="n">
+        <v>200</v>
+      </c>
+      <c r="H20" t="n">
+        <v>50</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="N20" t="n">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_55_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>128</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2500</v>
+      </c>
+      <c r="H21" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N21" t="n">
+        <v>88.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_35_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>128</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>50</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>88.59</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_37_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>128</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>50</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>88.34999999999999</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_43_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>128</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N24" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_59_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>128</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="N25" t="n">
+        <v>86.47</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_05_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>128</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>50</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N26" t="n">
+        <v>84.39</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_22_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>dblp</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>128</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>50</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.44</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N27" t="n">
         <v>81.5</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O27" t="n">
         <v>0.02</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P27" t="n">
         <v>0.27</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-12_25_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/dblp/MVSE_dblp<l01><WH>90.46.xlsx
+++ b/results/MVSE/dblp/MVSE_dblp<l01><WH>90.46.xlsx
@@ -563,7 +563,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
       <c r="L2" t="n">
         <v>2</v>
       </c>
@@ -631,7 +633,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
       <c r="L3" t="n">
         <v>2</v>
       </c>
@@ -722,7 +726,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_19_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -790,7 +796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_10_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -835,7 +843,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
       <c r="L6" t="n">
         <v>2</v>
       </c>
@@ -903,7 +913,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
@@ -971,7 +983,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
       <c r="L8" t="n">
         <v>2</v>
       </c>
@@ -1039,7 +1053,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
       <c r="L9" t="n">
         <v>2</v>
       </c>
@@ -1130,7 +1146,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_59_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1198,7 +1216,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_33_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1266,7 +1286,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_47_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1334,7 +1356,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_52_15', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1402,7 +1426,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-10_36_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1470,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_17_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1538,7 +1566,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_23_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1583,7 +1613,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
       <c r="L17" t="n">
         <v>2</v>
       </c>
@@ -1674,7 +1706,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-12_13_43', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1742,7 +1776,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_27_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1810,7 +1846,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_55_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1878,7 +1916,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_35_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1946,7 +1986,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_37_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2014,7 +2056,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_43_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2082,7 +2126,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_59_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2150,7 +2196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-11_05_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2195,7 +2243,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
@@ -2286,7 +2336,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-12_25_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'dblp', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['apa', 'apcpa'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
